--- a/web/static/documents/achats_fichier_exemple_ma_cantine.xlsx
+++ b/web/static/documents/achats_fichier_exemple_ma_cantine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/helenfrancesroot/Develop/ma-cantine/web/static/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{52856037-99CC-EA4F-9EEA-192A197763B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48772C08-A78C-B849-BC09-103845387620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11580" yWindow="5460" windowWidth="28040" windowHeight="17440" xr2:uid="{6C648852-FA83-0642-8247-6707C8DBE142}"/>
   </bookViews>
@@ -52,9 +52,6 @@
     <t>prix HT</t>
   </si>
   <si>
-    <t>catégorie</t>
-  </si>
-  <si>
     <t>caractéristiques</t>
   </si>
   <si>
@@ -67,9 +64,6 @@
     <t>Le Bon Traiteur</t>
   </si>
   <si>
-    <t>FRUITS_ET_LEGUMES</t>
-  </si>
-  <si>
     <t>BIO,LOCAL</t>
   </si>
   <si>
@@ -77,6 +71,12 @@
   </si>
   <si>
     <t>82399356058716</t>
+  </si>
+  <si>
+    <t>famille</t>
+  </si>
+  <si>
+    <t>AUTRES</t>
   </si>
 </sst>
 </file>
@@ -84,7 +84,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -118,7 +118,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -436,7 +436,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -467,24 +467,24 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
         <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
       </c>
       <c r="D2" s="2">
         <v>44683</v>
@@ -493,13 +493,13 @@
         <v>499.67</v>
       </c>
       <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
         <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
